--- a/Sorting/MergeVBubble.xlsx
+++ b/Sorting/MergeVBubble.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -141,11 +137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094565504"/>
-        <c:axId val="-2094560512"/>
+        <c:axId val="-2060719232"/>
+        <c:axId val="-2060607408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2094565504"/>
+        <c:axId val="-2060719232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -201,12 +197,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094560512"/>
+        <c:crossAx val="-2060607408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094560512"/>
+        <c:axId val="-2060607408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -263,7 +259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094565504"/>
+        <c:crossAx val="-2060719232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -624,11 +620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2097655392"/>
-        <c:axId val="-2096142608"/>
+        <c:axId val="-2079873104"/>
+        <c:axId val="-2075973968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2097655392"/>
+        <c:axId val="-2079873104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,12 +748,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096142608"/>
+        <c:crossAx val="-2075973968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2096142608"/>
+        <c:axId val="-2075973968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,7 +776,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -817,7 +813,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -874,7 +870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097655392"/>
+        <c:crossAx val="-2079873104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2408,7 +2404,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="182" zoomScalePageLayoutView="182" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2423,6 +2419,9 @@
       <c r="B1">
         <v>22</v>
       </c>
+      <c r="C1">
+        <v>19</v>
+      </c>
       <c r="D1">
         <v>588</v>
       </c>
@@ -2434,6 +2433,9 @@
       <c r="B2">
         <v>19</v>
       </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
       <c r="D2">
         <v>2130</v>
       </c>
@@ -2445,6 +2447,9 @@
       <c r="B3">
         <v>14</v>
       </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
       <c r="D3">
         <v>4707</v>
       </c>
@@ -2456,6 +2461,9 @@
       <c r="B4">
         <v>29</v>
       </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
       <c r="D4">
         <v>12610</v>
       </c>
@@ -2467,6 +2475,9 @@
       <c r="B5">
         <v>40</v>
       </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
       <c r="D5">
         <v>14570</v>
       </c>
@@ -2478,6 +2489,9 @@
       <c r="B6">
         <v>30</v>
       </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
       <c r="D6">
         <v>21869</v>
       </c>
@@ -2489,6 +2503,9 @@
       <c r="B7">
         <v>36</v>
       </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
       <c r="D7">
         <v>34813</v>
       </c>
@@ -2500,6 +2517,9 @@
       <c r="B8">
         <v>35</v>
       </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
       <c r="D8">
         <v>43468</v>
       </c>
@@ -2511,6 +2531,9 @@
       <c r="B9">
         <v>42</v>
       </c>
+      <c r="C9">
+        <v>49</v>
+      </c>
       <c r="D9">
         <v>56638</v>
       </c>
@@ -2521,6 +2544,9 @@
       </c>
       <c r="B10">
         <v>57</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
       </c>
       <c r="D10">
         <v>69338</v>
